--- a/media/Town07_ClearNoon/question_conditions.xlsx
+++ b/media/Town07_ClearNoon/question_conditions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23440" windowHeight="8440"/>
+    <workbookView windowWidth="20680" windowHeight="7460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>left_town_weather_name</t>
   </si>
@@ -37,13 +37,19 @@
     <t>question1</t>
   </si>
   <si>
-    <t>Town01_ClearNoon</t>
+    <t>Town03_ClearNoon</t>
   </si>
   <si>
     <t>left</t>
   </si>
   <si>
+    <t>Town06_ClearNoon</t>
+  </si>
+  <si>
     <t>question2</t>
+  </si>
+  <si>
+    <t>right</t>
   </si>
 </sst>
 </file>
@@ -51,10 +57,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -65,9 +71,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -75,6 +94,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -82,7 +116,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,21 +139,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,75 +147,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,6 +162,43 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -209,8 +206,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,181 +237,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,11 +425,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,26 +487,20 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,155 +518,155 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -991,7 +997,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1038,19 +1044,19 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/media/Town07_ClearNoon/question_conditions.xlsx
+++ b/media/Town07_ClearNoon/question_conditions.xlsx
@@ -40,16 +40,16 @@
     <t>Town03_ClearNoon</t>
   </si>
   <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>Town06_ClearNoon</t>
+  </si>
+  <si>
+    <t>question2</t>
+  </si>
+  <si>
     <t>left</t>
-  </si>
-  <si>
-    <t>Town06_ClearNoon</t>
-  </si>
-  <si>
-    <t>question2</t>
-  </si>
-  <si>
-    <t>right</t>
   </si>
 </sst>
 </file>
@@ -57,10 +57,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -71,60 +71,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,6 +110,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -145,11 +147,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,6 +162,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,53 +178,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,13 +231,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,31 +351,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,133 +393,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,17 +425,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,30 +464,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -522,151 +492,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
